--- a/app/Vendor/db/schema/ringiroutes.xlsx
+++ b/app/Vendor/db/schema/ringiroutes.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="ringiroutes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
   <si>
     <t>Others</t>
   </si>
@@ -22,9 +22,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>承認ルート連番</t>
-  </si>
-  <si>
     <t>int(10)</t>
   </si>
   <si>
@@ -37,51 +34,30 @@
     <t>auto_increment</t>
   </si>
   <si>
-    <t>ringiNo</t>
-  </si>
-  <si>
     <t>申請承認連番</t>
   </si>
   <si>
     <t>varchar(255)</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>approverLayer</t>
-  </si>
-  <si>
     <t>承認階層</t>
   </si>
   <si>
     <t>tinyint(1)</t>
   </si>
   <si>
-    <t>approverID</t>
-  </si>
-  <si>
     <t>承認者CD</t>
   </si>
   <si>
-    <t>approveDate</t>
-  </si>
-  <si>
     <t>承認日</t>
   </si>
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>ringStatus</t>
-  </si>
-  <si>
     <t>承認結果</t>
   </si>
   <si>
-    <t>lastLayerFlg</t>
-  </si>
-  <si>
     <t>最終承認階層フラグ</t>
   </si>
   <si>
@@ -134,6 +110,27 @@
   </si>
   <si>
     <t>PRI</t>
+  </si>
+  <si>
+    <t>int(3)</t>
+  </si>
+  <si>
+    <t>approverid</t>
+  </si>
+  <si>
+    <t>approvedate</t>
+  </si>
+  <si>
+    <t>ringistatus</t>
+  </si>
+  <si>
+    <t>lastlayerflg</t>
+  </si>
+  <si>
+    <t>approverlayer</t>
+  </si>
+  <si>
+    <t>ringino</t>
   </si>
 </sst>
 </file>
@@ -622,48 +619,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -676,7 +673,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -965,29 +962,34 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -997,253 +999,250 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
         <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
